--- a/choco/converters/validation/results/s2-02/sample_1/when-in-rome_406.xlsx
+++ b/choco/converters/validation/results/s2-02/sample_1/when-in-rome_406.xlsx
@@ -88,30 +88,33 @@
     <t>C major:I64</t>
   </si>
   <si>
+    <t>C:maj/5</t>
+  </si>
+  <si>
+    <t>C maj /5</t>
+  </si>
+  <si>
+    <t>C maj 2nd inversion</t>
+  </si>
+  <si>
+    <t>C major:V7</t>
+  </si>
+  <si>
+    <t>G:7</t>
+  </si>
+  <si>
+    <t>C maj / 5</t>
+  </si>
+  <si>
+    <t>C major:viio/ii</t>
+  </si>
+  <si>
+    <t>C#:dim</t>
+  </si>
+  <si>
     <t>G:maj/5</t>
   </si>
   <si>
-    <t>C maj /5</t>
-  </si>
-  <si>
-    <t>C maj 2nd inversion</t>
-  </si>
-  <si>
-    <t>C major:V7</t>
-  </si>
-  <si>
-    <t>G:7</t>
-  </si>
-  <si>
-    <t>C maj / 5</t>
-  </si>
-  <si>
-    <t>C major:viio/ii</t>
-  </si>
-  <si>
-    <t>C#:dim</t>
-  </si>
-  <si>
     <t>C major:IV6</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>C major:IV64</t>
-  </si>
-  <si>
-    <t>C:maj/5</t>
   </si>
   <si>
     <t>C major:ii65</t>
@@ -798,8 +798,8 @@
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="4" t="b">
-        <v>0</v>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
@@ -845,8 +845,8 @@
       <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="b">
-        <v>0</v>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>26</v>
@@ -889,8 +889,8 @@
       <c r="E17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="4" t="b">
-        <v>0</v>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>30</v>
@@ -933,8 +933,8 @@
       <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="4" t="b">
-        <v>0</v>
+      <c r="F19" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>30</v>
@@ -1370,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -1404,7 +1404,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -1472,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -1775,10 +1775,10 @@
         <v>1.0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
@@ -1792,10 +1792,10 @@
         <v>1.0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -1897,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -1931,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -1965,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -1999,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -2098,10 +2098,10 @@
         <v>1.0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
@@ -2115,10 +2115,10 @@
         <v>1.0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -2132,10 +2132,10 @@
         <v>1.0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90">
@@ -2268,10 +2268,10 @@
         <v>2.0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -2302,10 +2302,10 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -2424,7 +2424,7 @@
         <v>24</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -2458,7 +2458,7 @@
         <v>24</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -2492,7 +2492,7 @@
         <v>24</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -2543,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -2625,10 +2625,10 @@
         <v>2.0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
@@ -2659,10 +2659,10 @@
         <v>1.0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
@@ -2846,10 +2846,10 @@
         <v>1.0</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -2863,10 +2863,10 @@
         <v>1.0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133">
@@ -2968,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -3002,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -3036,7 +3036,7 @@
         <v>24</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -3070,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -3169,10 +3169,10 @@
         <v>1.0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
@@ -3186,10 +3186,10 @@
         <v>1.0</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152">
@@ -3478,7 +3478,7 @@
         <v>24</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -3512,7 +3512,7 @@
         <v>24</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -3546,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="173">
@@ -3679,10 +3679,10 @@
         <v>1.0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181">
@@ -3988,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="199">
@@ -4022,7 +4022,7 @@
         <v>24</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -4056,7 +4056,7 @@
         <v>24</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -4090,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -4498,7 +4498,7 @@
         <v>24</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="229">
@@ -4532,7 +4532,7 @@
         <v>24</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="231">
@@ -4566,7 +4566,7 @@
         <v>24</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="233">
@@ -4600,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="235">
@@ -5518,7 +5518,7 @@
         <v>24</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289">
@@ -5552,7 +5552,7 @@
         <v>24</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291">
@@ -5586,7 +5586,7 @@
         <v>24</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="293">
@@ -5821,10 +5821,10 @@
         <v>1.0</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307">
@@ -5838,10 +5838,10 @@
         <v>1.0</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="308">
@@ -5855,10 +5855,10 @@
         <v>1.0</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309">
@@ -5943,7 +5943,7 @@
         <v>24</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314">
@@ -5977,7 +5977,7 @@
         <v>24</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316">
@@ -6059,10 +6059,10 @@
         <v>1.0</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="321">
@@ -6076,10 +6076,10 @@
         <v>1.0</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="322">
@@ -6212,10 +6212,10 @@
         <v>1.0</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="330">
@@ -6229,10 +6229,10 @@
         <v>1.0</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="331">
@@ -6246,10 +6246,10 @@
         <v>1.0</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="332">
@@ -6399,10 +6399,10 @@
         <v>1.0</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341">
@@ -6521,7 +6521,7 @@
         <v>24</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="348">
@@ -6640,7 +6640,7 @@
         <v>24</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="355">
@@ -6790,10 +6790,10 @@
         <v>1.0</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="364">
@@ -6994,10 +6994,10 @@
         <v>2.0</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="376">
@@ -7116,7 +7116,7 @@
         <v>24</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="383">
@@ -7150,7 +7150,7 @@
         <v>24</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="385">
@@ -7184,7 +7184,7 @@
         <v>24</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="387">
@@ -7218,7 +7218,7 @@
         <v>24</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="389">
@@ -7334,10 +7334,10 @@
         <v>2.0</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="396">
@@ -7470,10 +7470,10 @@
         <v>2.0</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="404">
@@ -7487,10 +7487,10 @@
         <v>1.0</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="405">
